--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag1-Notch3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H2">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I2">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J2">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N2">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O2">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P2">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q2">
-        <v>37.86728998997334</v>
+        <v>51.48916898254978</v>
       </c>
       <c r="R2">
-        <v>340.80560990976</v>
+        <v>463.402520842948</v>
       </c>
       <c r="S2">
-        <v>0.00914322522497016</v>
+        <v>0.009280333437898218</v>
       </c>
       <c r="T2">
-        <v>0.009143225224970158</v>
+        <v>0.009280333437898216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H3">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I3">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J3">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N3">
         <v>15.114731</v>
       </c>
       <c r="O3">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P3">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q3">
-        <v>51.78226228701332</v>
+        <v>82.32368057895145</v>
       </c>
       <c r="R3">
-        <v>466.04036058312</v>
+        <v>740.9131252105632</v>
       </c>
       <c r="S3">
-        <v>0.01250305704142032</v>
+        <v>0.01483790126553839</v>
       </c>
       <c r="T3">
-        <v>0.01250305704142032</v>
+        <v>0.01483790126553839</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H4">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I4">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J4">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N4">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O4">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P4">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q4">
-        <v>863.1599996597332</v>
+        <v>1518.153665672816</v>
       </c>
       <c r="R4">
-        <v>7768.4399969376</v>
+        <v>13663.38299105534</v>
       </c>
       <c r="S4">
-        <v>0.2084138126642758</v>
+        <v>0.2736298236272969</v>
       </c>
       <c r="T4">
-        <v>0.2084138126642758</v>
+        <v>0.2736298236272969</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H5">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I5">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J5">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N5">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O5">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P5">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q5">
-        <v>0.9986634533333333</v>
+        <v>1.131506432073111</v>
       </c>
       <c r="R5">
-        <v>8.987971079999999</v>
+        <v>10.183557888658</v>
       </c>
       <c r="S5">
-        <v>0.000241131722924743</v>
+        <v>0.0002039410847808365</v>
       </c>
       <c r="T5">
-        <v>0.0002411317229247429</v>
+        <v>0.0002039410847808364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>43.704382</v>
       </c>
       <c r="I6">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J6">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N6">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O6">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P6">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q6">
-        <v>53.67426447017955</v>
+        <v>45.90648070353689</v>
       </c>
       <c r="R6">
-        <v>483.068380231616</v>
+        <v>413.158326331832</v>
       </c>
       <c r="S6">
-        <v>0.01295988936534433</v>
+        <v>0.008274117767052091</v>
       </c>
       <c r="T6">
-        <v>0.01295988936534433</v>
+        <v>0.008274117767052089</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>43.704382</v>
       </c>
       <c r="I7">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J7">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N7">
         <v>15.114731</v>
       </c>
       <c r="O7">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P7">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q7">
-        <v>73.39777527236021</v>
+        <v>73.39777527236022</v>
       </c>
       <c r="R7">
-        <v>660.5799774512419</v>
+        <v>660.579977451242</v>
       </c>
       <c r="S7">
-        <v>0.01772221858243962</v>
+        <v>0.01322910898714008</v>
       </c>
       <c r="T7">
-        <v>0.01772221858243961</v>
+        <v>0.01322910898714008</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>43.704382</v>
       </c>
       <c r="I8">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J8">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N8">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O8">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P8">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q8">
-        <v>1223.469599067795</v>
+        <v>1353.548587700699</v>
       </c>
       <c r="R8">
-        <v>11011.22639161016</v>
+        <v>12181.93728930629</v>
       </c>
       <c r="S8">
-        <v>0.2954121645130348</v>
+        <v>0.2439616421565453</v>
       </c>
       <c r="T8">
-        <v>0.2954121645130347</v>
+        <v>0.2439616421565453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>43.704382</v>
       </c>
       <c r="I9">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J9">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N9">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O9">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P9">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q9">
-        <v>1.415536372555555</v>
+        <v>1.008823393663555</v>
       </c>
       <c r="R9">
-        <v>12.739827353</v>
+        <v>9.079410542971999</v>
       </c>
       <c r="S9">
-        <v>0.0003417875393734197</v>
+        <v>0.0001818288711616768</v>
       </c>
       <c r="T9">
-        <v>0.0003417875393734197</v>
+        <v>0.0001818288711616768</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H10">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I10">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J10">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N10">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O10">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P10">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q10">
-        <v>63.11942659955555</v>
+        <v>69.80737740422178</v>
       </c>
       <c r="R10">
-        <v>568.074839396</v>
+        <v>628.266396637996</v>
       </c>
       <c r="S10">
-        <v>0.01524046567957517</v>
+        <v>0.01258198086195445</v>
       </c>
       <c r="T10">
-        <v>0.01524046567957517</v>
+        <v>0.01258198086195444</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H11">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I11">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J11">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N11">
         <v>15.114731</v>
       </c>
       <c r="O11">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P11">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q11">
-        <v>86.31372100959722</v>
+        <v>111.6118273617335</v>
       </c>
       <c r="R11">
-        <v>776.8234890863749</v>
+        <v>1004.506446255601</v>
       </c>
       <c r="S11">
-        <v>0.02084083100229645</v>
+        <v>0.02011675453299819</v>
       </c>
       <c r="T11">
-        <v>0.02084083100229644</v>
+        <v>0.02011675453299819</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H12">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I12">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J12">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N12">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O12">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P12">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q12">
-        <v>1438.765865120555</v>
+        <v>2058.26444651189</v>
       </c>
       <c r="R12">
-        <v>12948.892786085</v>
+        <v>18524.38001860701</v>
       </c>
       <c r="S12">
-        <v>0.3473964034468668</v>
+        <v>0.3709786105399178</v>
       </c>
       <c r="T12">
-        <v>0.3473964034468668</v>
+        <v>0.3709786105399178</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H13">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I13">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J13">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N13">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O13">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P13">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q13">
-        <v>1.664630993055555</v>
+        <v>1.534060426685111</v>
       </c>
       <c r="R13">
-        <v>14.9816789375</v>
+        <v>13.806543840166</v>
       </c>
       <c r="S13">
-        <v>0.0004019325409872934</v>
+        <v>0.0002764968352537826</v>
       </c>
       <c r="T13">
-        <v>0.0004019325409872933</v>
+        <v>0.0002764968352537826</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H14">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I14">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J14">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N14">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O14">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P14">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q14">
-        <v>9.764065824352</v>
+        <v>5.607254711978222</v>
       </c>
       <c r="R14">
-        <v>87.87659241916801</v>
+        <v>50.465292407804</v>
       </c>
       <c r="S14">
-        <v>0.002357577026693035</v>
+        <v>0.001010643489235955</v>
       </c>
       <c r="T14">
-        <v>0.002357577026693035</v>
+        <v>0.001010643489235955</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H15">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I15">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J15">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N15">
         <v>15.114731</v>
       </c>
       <c r="O15">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P15">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q15">
-        <v>13.352035956049</v>
+        <v>8.965183454216557</v>
       </c>
       <c r="R15">
-        <v>120.168323604441</v>
+        <v>80.68665108794902</v>
       </c>
       <c r="S15">
-        <v>0.00322390833857878</v>
+        <v>0.00161587171498641</v>
       </c>
       <c r="T15">
-        <v>0.003223908338578779</v>
+        <v>0.001615871714986409</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H16">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I16">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J16">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N16">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O16">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P16">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q16">
-        <v>222.56546628652</v>
+        <v>165.3294171097603</v>
       </c>
       <c r="R16">
-        <v>2003.08919657868</v>
+        <v>1487.964753987843</v>
       </c>
       <c r="S16">
-        <v>0.05373941959134078</v>
+        <v>0.02979873531056453</v>
       </c>
       <c r="T16">
-        <v>0.05373941959134077</v>
+        <v>0.02979873531056453</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H17">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I17">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J17">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N17">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O17">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P17">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q17">
-        <v>0.2575049785</v>
+        <v>0.1232229010148889</v>
       </c>
       <c r="R17">
-        <v>2.3175448065</v>
+        <v>1.109006109134</v>
       </c>
       <c r="S17">
-        <v>6.217571987855518E-05</v>
+        <v>2.220951767527762E-05</v>
       </c>
       <c r="T17">
-        <v>6.217571987855518E-05</v>
+        <v>2.220951767527761E-05</v>
       </c>
     </row>
   </sheetData>
